--- a/data files/Purchase Order/UNIVERSAL-GAZIABAD.xlsx
+++ b/data files/Purchase Order/UNIVERSAL-GAZIABAD.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA78B32-982F-4AA3-BCAD-C9E534619258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>To,</t>
   </si>
@@ -224,67 +225,70 @@
     <t>Adult Diaper Pants-Karemed Comfort</t>
   </si>
   <si>
+    <t>@180 nett</t>
+  </si>
+  <si>
+    <t>@190 nett</t>
+  </si>
+  <si>
+    <t>@175 nett</t>
+  </si>
+  <si>
+    <t>@185 nett</t>
+  </si>
+  <si>
+    <t>@195 nett</t>
+  </si>
+  <si>
+    <t>LuvLap Feeding Bottle Natural Flow  250ml</t>
+  </si>
+  <si>
+    <t>LuvLap Feeding Bottle Natural Flow  150ml</t>
+  </si>
+  <si>
+    <t>23/10/24</t>
+  </si>
+  <si>
+    <t>Evereve Period Panties, L-XL (2's)</t>
+  </si>
+  <si>
+    <t>Evereve Period Panties, L-XL (5's)</t>
+  </si>
+  <si>
+    <t>Evereve Period Panties, M-L (2's)</t>
+  </si>
+  <si>
+    <t>Evereve Period Panties, M-L (5's)</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Ph.:  97193-04441</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>48+48</t>
+  </si>
+  <si>
+    <t>24+24</t>
+  </si>
+  <si>
+    <t>36+36</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>@170 nett</t>
-  </si>
-  <si>
-    <t>@180 nett</t>
-  </si>
-  <si>
-    <t>@190 nett</t>
-  </si>
-  <si>
-    <t>@175 nett</t>
-  </si>
-  <si>
-    <t>@185 nett</t>
-  </si>
-  <si>
-    <t>@195 nett</t>
-  </si>
-  <si>
-    <t>LuvLap Feeding Bottle Natural Flow  250ml</t>
-  </si>
-  <si>
-    <t>LuvLap Feeding Bottle Natural Flow  150ml</t>
-  </si>
-  <si>
-    <t>23/10/24</t>
-  </si>
-  <si>
-    <t>Evereve Period Panties, L-XL (2's)</t>
-  </si>
-  <si>
-    <t>Evereve Period Panties, L-XL (5's)</t>
-  </si>
-  <si>
-    <t>Evereve Period Panties, M-L (2's)</t>
-  </si>
-  <si>
-    <t>Evereve Period Panties, M-L (5's)</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Ph.:  97193-04441</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>48+48</t>
-  </si>
-  <si>
-    <t>24+24</t>
-  </si>
-  <si>
-    <t>36+36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,7 +594,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -639,7 +643,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -701,8 +705,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -723,6 +726,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -745,7 +751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -791,7 +803,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -821,9 +839,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,7 +879,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -933,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1106,31 +1124,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H66" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="46" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="16" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1157,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
@@ -1148,14 +1166,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1177,14 +1195,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1223,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,19 +1231,19 @@
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="14"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1234,13 +1252,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>7</v>
       </c>
@@ -1257,14 +1275,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>1</v>
       </c>
@@ -1281,14 +1299,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>2</v>
       </c>
@@ -1305,27 +1323,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="C20" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="E20" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <v>3</v>
       </c>
@@ -1342,27 +1362,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="51" t="s">
+        <v>86</v>
+      </c>
       <c r="C23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="E23" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>4</v>
       </c>
@@ -1379,23 +1401,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19">
         <v>1</v>
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>5</v>
       </c>
@@ -1412,23 +1436,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19">
         <v>1</v>
       </c>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>6</v>
       </c>
@@ -1445,21 +1471,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>7</v>
       </c>
@@ -1476,23 +1504,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
-      <c r="B35" s="17"/>
+      <c r="B35" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
         <v>1</v>
       </c>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="17"/>
       <c r="C36" s="19"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>8</v>
       </c>
@@ -1509,21 +1539,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="19"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>9</v>
       </c>
@@ -1538,9 +1570,11 @@
       </c>
       <c r="E40" s="21"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="C41" s="19" t="s">
         <v>65</v>
       </c>
@@ -1549,14 +1583,14 @@
       </c>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="19"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>10</v>
       </c>
@@ -1571,23 +1605,25 @@
       </c>
       <c r="E43" s="25"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="C44" s="19">
         <v>24</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>11</v>
       </c>
@@ -1600,7 +1636,7 @@
       <c r="D46" s="26"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>12</v>
       </c>
@@ -1613,19 +1649,19 @@
       <c r="D47" s="26"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="18"/>
       <c r="D48" s="26"/>
       <c r="E48" s="23"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>13</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="18">
         <v>12</v>
@@ -1633,12 +1669,12 @@
       <c r="D49" s="26"/>
       <c r="E49" s="23"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>14</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="18">
         <v>24</v>
@@ -1646,14 +1682,14 @@
       <c r="D50" s="26"/>
       <c r="E50" s="23"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="18"/>
       <c r="D51" s="26"/>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>15</v>
       </c>
@@ -1666,7 +1702,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="23"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>16</v>
       </c>
@@ -1679,7 +1715,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>17</v>
       </c>
@@ -1692,7 +1728,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>18</v>
       </c>
@@ -1705,7 +1741,7 @@
       <c r="D55" s="26"/>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>19</v>
       </c>
@@ -1718,7 +1754,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>20</v>
       </c>
@@ -1731,7 +1767,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>21</v>
       </c>
@@ -1744,7 +1780,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>22</v>
       </c>
@@ -1757,7 +1793,7 @@
       <c r="D59" s="26"/>
       <c r="E59" s="23"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>23</v>
       </c>
@@ -1770,7 +1806,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="23"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>24</v>
       </c>
@@ -1783,7 +1819,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="23"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>25</v>
       </c>
@@ -1796,7 +1832,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="23"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>26</v>
       </c>
@@ -1809,7 +1845,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="23"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>27</v>
       </c>
@@ -1822,7 +1858,7 @@
       <c r="D64" s="26"/>
       <c r="E64" s="23"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>28</v>
       </c>
@@ -1835,7 +1871,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>29</v>
       </c>
@@ -1848,7 +1884,7 @@
       <c r="D66" s="26"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>30</v>
       </c>
@@ -1861,7 +1897,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>31</v>
       </c>
@@ -1874,7 +1910,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>32</v>
       </c>
@@ -1887,7 +1923,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>2</v>
       </c>
@@ -1900,63 +1936,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="46" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="16" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="6"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1966,13 +2002,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1981,35 +2017,35 @@
         <v>6</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="14"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2017,96 +2053,96 @@
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>81</v>
+      <c r="C15" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>1</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>2</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>3</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>4</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
